--- a/lab1/matrix.xlsx
+++ b/lab1/matrix.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,68 +460,68 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22</v>
+        <v>12.8</v>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>13.73</v>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>13.27</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>26</v>
+        <v>13.73</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>14.66</v>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>14.2</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="F3" t="n">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>30</v>
+        <v>14.66</v>
       </c>
       <c r="B4" t="n">
-        <v>34</v>
+        <v>15.59</v>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>15.12</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>0.18</v>
+        <v>0.04</v>
       </c>
       <c r="F4" t="n">
-        <v>0.32</v>
+        <v>0.08</v>
       </c>
       <c r="G4" t="n">
         <v>0.04</v>
@@ -529,94 +529,117 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>34</v>
+        <v>15.59</v>
       </c>
       <c r="B5" t="n">
-        <v>38</v>
+        <v>16.52</v>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>16.05</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>0.36</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>0.68</v>
+        <v>0.33</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>38</v>
+        <v>16.52</v>
       </c>
       <c r="B6" t="n">
-        <v>42</v>
+        <v>17.45</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>16.98</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E6" t="n">
-        <v>0.18</v>
+        <v>0.31</v>
       </c>
       <c r="F6" t="n">
-        <v>0.86</v>
+        <v>0.64</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>42</v>
+        <v>17.45</v>
       </c>
       <c r="B7" t="n">
-        <v>46</v>
+        <v>18.38</v>
       </c>
       <c r="C7" t="n">
-        <v>44</v>
+        <v>17.91</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="F7" t="n">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>46</v>
+        <v>18.38</v>
       </c>
       <c r="B8" t="n">
-        <v>50</v>
+        <v>19.31</v>
       </c>
       <c r="C8" t="n">
-        <v>48</v>
+        <v>18.84</v>
       </c>
       <c r="D8" t="n">
+        <v>12</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20.24</v>
+      </c>
+      <c r="C9" t="n">
+        <v>19.77</v>
+      </c>
+      <c r="D9" t="n">
         <v>2</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.01</v>
+      <c r="G9" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>

--- a/lab1/matrix.xlsx
+++ b/lab1/matrix.xlsx
@@ -460,186 +460,186 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12.8</v>
+        <v>-2.735</v>
       </c>
       <c r="B2" t="n">
-        <v>13.73</v>
+        <v>-2.04</v>
       </c>
       <c r="C2" t="n">
-        <v>13.27</v>
+        <v>-2.38</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13.73</v>
+        <v>-2.04</v>
       </c>
       <c r="B3" t="n">
-        <v>14.66</v>
+        <v>-1.34</v>
       </c>
       <c r="C3" t="n">
-        <v>14.2</v>
+        <v>-1.69</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14.66</v>
+        <v>-1.34</v>
       </c>
       <c r="B4" t="n">
-        <v>15.59</v>
+        <v>-0.64</v>
       </c>
       <c r="C4" t="n">
-        <v>15.12</v>
+        <v>-0.99</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>15.59</v>
+        <v>-0.64</v>
       </c>
       <c r="B5" t="n">
-        <v>16.52</v>
+        <v>0.06</v>
       </c>
       <c r="C5" t="n">
-        <v>16.05</v>
+        <v>-0.29</v>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="F5" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16.52</v>
+        <v>0.06</v>
       </c>
       <c r="B6" t="n">
-        <v>17.45</v>
+        <v>0.76</v>
       </c>
       <c r="C6" t="n">
-        <v>16.98</v>
+        <v>0.41</v>
       </c>
       <c r="D6" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="F6" t="n">
-        <v>0.64</v>
+        <v>0.74</v>
       </c>
       <c r="G6" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17.45</v>
+        <v>0.76</v>
       </c>
       <c r="B7" t="n">
-        <v>18.38</v>
+        <v>1.46</v>
       </c>
       <c r="C7" t="n">
-        <v>17.91</v>
+        <v>1.11</v>
       </c>
       <c r="D7" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E7" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="F7" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="G7" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>18.38</v>
+        <v>1.46</v>
       </c>
       <c r="B8" t="n">
-        <v>19.31</v>
+        <v>2.16</v>
       </c>
       <c r="C8" t="n">
-        <v>18.84</v>
+        <v>1.81</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="F8" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19.31</v>
+        <v>2.16</v>
       </c>
       <c r="B9" t="n">
-        <v>20.24</v>
+        <v>2.86</v>
       </c>
       <c r="C9" t="n">
-        <v>19.77</v>
+        <v>2.51</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
